--- a/data/2016/RP2 - Flights_2016.xlsx
+++ b/data/2016/RP2 - Flights_2016.xlsx
@@ -46,24 +46,78 @@
     <t>NSA-PRU-Support@eurocontrol.int</t>
   </si>
   <si>
+    <t>Period: JAN-DEC</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Avg. daily</t>
+  </si>
+  <si>
+    <t>FAB (based on FIR)</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>% change</t>
+  </si>
+  <si>
+    <t>SES Area (RP2)</t>
+  </si>
+  <si>
+    <t>Baltic FAB</t>
+  </si>
+  <si>
+    <t>BLUE MED FAB</t>
+  </si>
+  <si>
+    <t>DANUBE FAB</t>
+  </si>
+  <si>
+    <t>DK-SE FAB</t>
+  </si>
+  <si>
+    <t>FAB CE (SES RP2)</t>
+  </si>
+  <si>
+    <t>FABEC</t>
+  </si>
+  <si>
+    <t>NEFAB</t>
+  </si>
+  <si>
+    <t>SES RP2 Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SW FAB</t>
+  </si>
+  <si>
+    <t>UK-Ireland FAB</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
     <t>Entity</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
     <t>Label</t>
   </si>
   <si>
-    <t>Period: JAN-DEC</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
     <t>Total IFR flights</t>
   </si>
   <si>
@@ -79,64 +133,43 @@
     <t>SES AREA RP2</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>SES RP2 Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Avg. daily</t>
-  </si>
-  <si>
-    <t>FAB (based on FIR)</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>% change</t>
-  </si>
-  <si>
-    <t>SES Area (RP2)</t>
-  </si>
-  <si>
     <t>Jan-15</t>
   </si>
   <si>
     <t>JAN</t>
   </si>
   <si>
-    <t>Baltic FAB</t>
-  </si>
-  <si>
-    <t>BLUE MED FAB</t>
-  </si>
-  <si>
-    <t>DANUBE FAB</t>
-  </si>
-  <si>
-    <t>DK-SE FAB</t>
-  </si>
-  <si>
-    <t>FAB CE (SES RP2)</t>
-  </si>
-  <si>
-    <t>FABEC</t>
-  </si>
-  <si>
-    <t>NEFAB</t>
-  </si>
-  <si>
-    <t>SW FAB</t>
-  </si>
-  <si>
-    <t>UK-Ireland FAB</t>
+    <t>Change date</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>2nd quarter update</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>3rd quarter update</t>
+  </si>
+  <si>
+    <t>09-MAY-2016</t>
+  </si>
+  <si>
+    <t>Data loading issue resolved</t>
+  </si>
+  <si>
+    <t>Update Q4</t>
   </si>
   <si>
     <t>Feb-15</t>
@@ -145,106 +178,73 @@
     <t>FEB</t>
   </si>
   <si>
-    <t>Change date</t>
+    <t>Mar-15</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>Apr-15</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>May-15</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>Jun-15</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>Jul-15</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>Aug-15</t>
+  </si>
+  <si>
+    <t>AUG</t>
+  </si>
+  <si>
+    <t>Sep-15</t>
+  </si>
+  <si>
+    <t>SEP</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>Q2</t>
+    <t>Oct-15</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>Nov-15</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>Dec-15</t>
+  </si>
+  <si>
+    <t>DEC</t>
   </si>
   <si>
     <t>2018</t>
   </si>
   <si>
     <t>2019</t>
-  </si>
-  <si>
-    <t>Mar-15</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>Apr-15</t>
-  </si>
-  <si>
-    <t>APR</t>
-  </si>
-  <si>
-    <t>2nd quarter update</t>
-  </si>
-  <si>
-    <t>May-15</t>
-  </si>
-  <si>
-    <t>MAY</t>
-  </si>
-  <si>
-    <t>Jun-15</t>
-  </si>
-  <si>
-    <t>JUN</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>3rd quarter update</t>
-  </si>
-  <si>
-    <t>Jul-15</t>
-  </si>
-  <si>
-    <t>09-MAY-2016</t>
-  </si>
-  <si>
-    <t>JUL</t>
-  </si>
-  <si>
-    <t>Data loading issue resolved</t>
-  </si>
-  <si>
-    <t>Aug-15</t>
-  </si>
-  <si>
-    <t>AUG</t>
-  </si>
-  <si>
-    <t>Sep-15</t>
-  </si>
-  <si>
-    <t>SEP</t>
-  </si>
-  <si>
-    <t>Oct-15</t>
-  </si>
-  <si>
-    <t>OCT</t>
-  </si>
-  <si>
-    <t>Nov-15</t>
-  </si>
-  <si>
-    <t>NOV</t>
-  </si>
-  <si>
-    <t>Dec-15</t>
-  </si>
-  <si>
-    <t>DEC</t>
-  </si>
-  <si>
-    <t>Update Q4</t>
   </si>
   <si>
     <t>Jan-16</t>
@@ -418,47 +418,25 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FF396EA2"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="9.0"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.0"/>
-      <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
       <sz val="10.0"/>
       <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -473,9 +451,31 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF396EA2"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF396EA2"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -516,7 +516,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="36">
+    <border/>
     <border>
       <left/>
       <right/>
@@ -524,6 +525,11 @@
       <bottom/>
     </border>
     <border>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -532,6 +538,80 @@
       </bottom>
     </border>
     <border>
+      <left/>
+      <right/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -554,12 +634,7 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -568,25 +643,8 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
     </border>
     <border>
@@ -598,6 +656,59 @@
       <bottom/>
     </border>
     <border>
+      <left/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -608,19 +719,73 @@
       <bottom/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -630,36 +795,9 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -671,305 +809,311 @@
   </cellStyleXfs>
   <cellXfs count="103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="16" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="16" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="11" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="16" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="16" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="11" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="12" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="3" fontId="12" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="12" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="16" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="16" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="11" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="10" fillId="3" fontId="11" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="21" fillId="3" fontId="16" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="12" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="3" fontId="12" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="12" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="23" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="24" fillId="3" fontId="16" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="16" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="24" fillId="3" fontId="12" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="12" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="3" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="28" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="29" fillId="3" fontId="12" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="3" fontId="12" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="3" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="32" fillId="3" fontId="12" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="34" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="35" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="12" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="12" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="3" fontId="12" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="12" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,25 +1124,26 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFB6D7A8"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1014,19 +1159,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4">
         <v>42005.0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -1034,146 +1179,143 @@
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>42779.0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="18" t="str">
+      <c r="F2" s="19" t="str">
         <f>HYPERLINK("mailto:NSA-PRU-Support@eurocontrol.int","NSA-PRU-Support@eurocontrol.int")</f>
         <v>NSA-PRU-Support@eurocontrol.int</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="21"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="38.25" customHeight="1">
+      <c r="A5" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="12.0" customHeight="1">
+      <c r="A6" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" ht="38.25" customHeight="1">
-      <c r="A5" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="46">
+      <c r="B6" s="52">
         <v>365.0</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="66">
         <v>9242345.0</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="69">
         <f t="shared" ref="D6:D7" si="1">C6/B6</f>
         <v>25321.49315</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="71">
         <v>0.01426</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="56">
+      <c r="A7" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="74">
         <v>366.0</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="75">
         <v>9505573.0</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="77">
         <f t="shared" si="1"/>
         <v>25971.51093</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="78">
         <f>D7/D6-1</f>
         <v>0.02567059432</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
+      <c r="A8" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="84"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="72"/>
+      <c r="A9" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="84"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="93"/>
+      <c r="A10" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1181,6 +1323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFB6D7A8"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1200,448 +1343,448 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4">
         <v>42005.0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>42779.0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="18" t="str">
+      <c r="F2" s="19" t="str">
         <f>HYPERLINK("mailto:NSA-PRU-Support@eurocontrol.int","NSA-PRU-Support@eurocontrol.int")</f>
         <v>NSA-PRU-Support@eurocontrol.int</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="9"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" ht="51.0" customHeight="1">
-      <c r="A4" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>19</v>
+      <c r="A4" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="38">
+      <c r="A5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="43">
         <v>2015.0</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="48">
-        <v>31.0</v>
-      </c>
-      <c r="F5" s="46">
+      <c r="C5" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="50">
+        <v>31.0</v>
+      </c>
+      <c r="F5" s="52">
         <v>640854.0</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="56">
         <f t="shared" ref="G5:G28" si="1">F5/E5</f>
         <v>20672.70968</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="53">
+      <c r="H5" s="58"/>
+      <c r="I5" s="60">
         <v>0.0</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="58">
+      <c r="A6" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="62">
         <v>2015.0</v>
       </c>
-      <c r="C6" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="64">
+      <c r="C6" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="65">
         <v>28.0</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="67">
         <v>611109.0</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="68">
         <f t="shared" si="1"/>
         <v>21825.32143</v>
       </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="73">
+      <c r="H6" s="70"/>
+      <c r="I6" s="72">
         <v>0.0</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="58">
+      <c r="A7" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="62">
         <v>2015.0</v>
       </c>
-      <c r="C7" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="48">
-        <v>31.0</v>
-      </c>
-      <c r="F7" s="65">
+      <c r="C7" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="50">
+        <v>31.0</v>
+      </c>
+      <c r="F7" s="67">
         <v>711175.0</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="68">
         <f t="shared" si="1"/>
         <v>22941.12903</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="73">
+      <c r="H7" s="70"/>
+      <c r="I7" s="72">
         <v>0.0</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="58">
+      <c r="A8" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="62">
         <v>2015.0</v>
       </c>
-      <c r="C8" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="48">
+      <c r="C8" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="50">
         <v>30.0</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="74">
         <v>756518.0</v>
       </c>
       <c r="G8" s="76">
         <f t="shared" si="1"/>
         <v>25217.26667</v>
       </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="73">
+      <c r="H8" s="70"/>
+      <c r="I8" s="72">
         <v>0.0</v>
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="58">
+      <c r="A9" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="62">
         <v>2015.0</v>
       </c>
-      <c r="C9" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="48">
-        <v>31.0</v>
-      </c>
-      <c r="F9" s="56">
+      <c r="C9" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="50">
+        <v>31.0</v>
+      </c>
+      <c r="F9" s="74">
         <v>823449.0</v>
       </c>
       <c r="G9" s="76">
         <f t="shared" si="1"/>
         <v>26562.87097</v>
       </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="73">
+      <c r="H9" s="70"/>
+      <c r="I9" s="72">
         <v>0.0</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="58">
+      <c r="A10" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="62">
         <v>2015.0</v>
       </c>
-      <c r="C10" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="48">
+      <c r="C10" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="50">
         <v>30.0</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="74">
         <v>865166.0</v>
       </c>
       <c r="G10" s="76">
         <f t="shared" si="1"/>
         <v>28838.86667</v>
       </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="73">
+      <c r="H10" s="70"/>
+      <c r="I10" s="72">
         <v>0.0</v>
       </c>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="58">
+      <c r="A11" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="62">
         <v>2015.0</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="48">
-        <v>31.0</v>
-      </c>
-      <c r="F11" s="56">
+      <c r="D11" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="50">
+        <v>31.0</v>
+      </c>
+      <c r="F11" s="74">
         <v>904153.0</v>
       </c>
       <c r="G11" s="76">
         <f t="shared" si="1"/>
         <v>29166.22581</v>
       </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="73">
+      <c r="H11" s="70"/>
+      <c r="I11" s="72">
         <v>0.0</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="58">
+      <c r="A12" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="62">
         <v>2015.0</v>
       </c>
-      <c r="C12" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="48">
-        <v>31.0</v>
-      </c>
-      <c r="F12" s="56">
+      <c r="C12" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="50">
+        <v>31.0</v>
+      </c>
+      <c r="F12" s="74">
         <v>896327.0</v>
       </c>
       <c r="G12" s="76">
         <f t="shared" si="1"/>
         <v>28913.77419</v>
       </c>
-      <c r="H12" s="69"/>
-      <c r="I12" s="73">
+      <c r="H12" s="70"/>
+      <c r="I12" s="72">
         <v>0.0</v>
       </c>
     </row>
     <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="58">
+      <c r="A13" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="62">
         <v>2015.0</v>
       </c>
-      <c r="C13" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="48">
+      <c r="C13" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="50">
         <v>30.0</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="74">
         <v>867898.0</v>
       </c>
       <c r="G13" s="76">
         <f t="shared" si="1"/>
         <v>28929.93333</v>
       </c>
-      <c r="H13" s="69"/>
-      <c r="I13" s="73">
+      <c r="H13" s="70"/>
+      <c r="I13" s="72">
         <v>0.0</v>
       </c>
     </row>
     <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="58">
+      <c r="A14" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="62">
         <v>2015.0</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="48">
-        <v>31.0</v>
-      </c>
-      <c r="F14" s="56">
+      <c r="E14" s="50">
+        <v>31.0</v>
+      </c>
+      <c r="F14" s="74">
         <v>820507.0</v>
       </c>
       <c r="G14" s="76">
         <f t="shared" si="1"/>
         <v>26467.96774</v>
       </c>
-      <c r="H14" s="69"/>
-      <c r="I14" s="73">
+      <c r="H14" s="70"/>
+      <c r="I14" s="72">
         <v>0.0</v>
       </c>
     </row>
     <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="58">
+      <c r="A15" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="62">
         <v>2015.0</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="48">
+      <c r="E15" s="50">
         <v>30.0</v>
       </c>
-      <c r="F15" s="56">
+      <c r="F15" s="74">
         <v>681377.0</v>
       </c>
       <c r="G15" s="76">
         <f t="shared" si="1"/>
         <v>22712.56667</v>
       </c>
-      <c r="H15" s="69"/>
-      <c r="I15" s="73">
+      <c r="H15" s="70"/>
+      <c r="I15" s="72">
         <v>0.0</v>
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="81" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B16" s="81">
         <v>2015.0</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="87">
-        <v>31.0</v>
-      </c>
-      <c r="F16" s="78">
+      <c r="E16" s="86">
+        <v>31.0</v>
+      </c>
+      <c r="F16" s="87">
         <v>663812.0</v>
       </c>
-      <c r="G16" s="89">
+      <c r="G16" s="91">
         <f t="shared" si="1"/>
         <v>21413.29032</v>
       </c>
-      <c r="H16" s="91"/>
-      <c r="I16" s="92">
+      <c r="H16" s="92"/>
+      <c r="I16" s="93">
         <v>0.0</v>
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="58" t="s">
-        <v>20</v>
+      <c r="A17" s="62" t="s">
+        <v>38</v>
       </c>
       <c r="B17" s="94">
         <v>2016.0</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="48">
+      <c r="D17" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="50">
         <v>31.0</v>
       </c>
       <c r="F17" s="95">
         <v>648400.0</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="56">
         <f t="shared" si="1"/>
         <v>20916.12903</v>
       </c>
@@ -1649,30 +1792,30 @@
         <f>G17/G5-1</f>
         <v>0.01177491285</v>
       </c>
-      <c r="I17" s="73">
+      <c r="I17" s="72">
         <v>1.0</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="58">
+      <c r="A18" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="62">
         <v>2016.0</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="48">
+      <c r="D18" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="50">
         <v>29.0</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="74">
         <v>649085.0</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="68">
         <f t="shared" si="1"/>
         <v>22382.24138</v>
       </c>
@@ -1680,30 +1823,30 @@
         <f t="shared" ref="H18:H28" si="2">(sum(F$17:F18)/sum(E$17:E18))/(sum(F$5:F6)/sum(E$5:E6))-1</f>
         <v>0.01908782448</v>
       </c>
-      <c r="I18" s="73">
+      <c r="I18" s="72">
         <v>1.0</v>
       </c>
     </row>
     <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="58">
+      <c r="A19" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="62">
         <v>2016.0</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="48">
-        <v>31.0</v>
-      </c>
-      <c r="F19" s="56">
+      <c r="D19" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="50">
+        <v>31.0</v>
+      </c>
+      <c r="F19" s="74">
         <v>724838.0</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="68">
         <f t="shared" si="1"/>
         <v>23381.87097</v>
       </c>
@@ -1711,30 +1854,30 @@
         <f t="shared" si="2"/>
         <v>0.01882785129</v>
       </c>
-      <c r="I19" s="73">
+      <c r="I19" s="72">
         <v>1.0</v>
       </c>
     </row>
     <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="58">
+      <c r="A20" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="62">
         <v>2016.0</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="48">
+      <c r="D20" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="50">
         <v>30.0</v>
       </c>
-      <c r="F20" s="56">
+      <c r="F20" s="74">
         <v>770617.0</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="68">
         <f t="shared" si="1"/>
         <v>25687.23333</v>
       </c>
@@ -1742,30 +1885,30 @@
         <f t="shared" si="2"/>
         <v>0.01845889746</v>
       </c>
-      <c r="I20" s="73">
+      <c r="I20" s="72">
         <v>1.0</v>
       </c>
     </row>
     <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="58">
+      <c r="A21" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="62">
         <v>2016.0</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="48">
-        <v>31.0</v>
-      </c>
-      <c r="F21" s="56">
+      <c r="D21" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="50">
+        <v>31.0</v>
+      </c>
+      <c r="F21" s="74">
         <v>848766.0</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="68">
         <f t="shared" si="1"/>
         <v>27379.54839</v>
       </c>
@@ -1773,30 +1916,30 @@
         <f t="shared" si="2"/>
         <v>0.02106694775</v>
       </c>
-      <c r="I21" s="73">
+      <c r="I21" s="72">
         <v>1.0</v>
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="58">
+      <c r="A22" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="62">
         <v>2016.0</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="48">
+      <c r="D22" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="50">
         <v>30.0</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="74">
         <v>879080.0</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="68">
         <f t="shared" si="1"/>
         <v>29302.66667</v>
       </c>
@@ -1804,30 +1947,30 @@
         <f t="shared" si="2"/>
         <v>0.0198888672</v>
       </c>
-      <c r="I22" s="73">
+      <c r="I22" s="72">
         <v>1.0</v>
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
-      <c r="A23" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="58">
+      <c r="A23" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="62">
         <v>2016.0</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="48">
-        <v>31.0</v>
-      </c>
-      <c r="F23" s="56">
+      <c r="D23" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="50">
+        <v>31.0</v>
+      </c>
+      <c r="F23" s="74">
         <v>929157.0</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="68">
         <f t="shared" si="1"/>
         <v>29972.80645</v>
       </c>
@@ -1835,30 +1978,30 @@
         <f t="shared" si="2"/>
         <v>0.02106993213</v>
       </c>
-      <c r="I23" s="73">
+      <c r="I23" s="72">
         <v>1.0</v>
       </c>
     </row>
     <row r="24" ht="12.0" customHeight="1">
-      <c r="A24" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="58">
+      <c r="A24" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="62">
         <v>2016.0</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="48">
-        <v>31.0</v>
-      </c>
-      <c r="F24" s="56">
+      <c r="D24" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="50">
+        <v>31.0</v>
+      </c>
+      <c r="F24" s="74">
         <v>924906.0</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="68">
         <f t="shared" si="1"/>
         <v>29835.67742</v>
       </c>
@@ -1866,30 +2009,30 @@
         <f t="shared" si="2"/>
         <v>0.02254423952</v>
       </c>
-      <c r="I24" s="73">
+      <c r="I24" s="72">
         <v>1.0</v>
       </c>
     </row>
     <row r="25" ht="12.0" customHeight="1">
-      <c r="A25" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="58">
+      <c r="A25" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="62">
         <v>2016.0</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="48">
+      <c r="D25" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="50">
         <v>30.0</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="74">
         <v>898006.0</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="68">
         <f t="shared" si="1"/>
         <v>29933.53333</v>
       </c>
@@ -1897,30 +2040,30 @@
         <f t="shared" si="2"/>
         <v>0.02397501043</v>
       </c>
-      <c r="I25" s="73">
+      <c r="I25" s="72">
         <v>1.0</v>
       </c>
     </row>
     <row r="26" ht="12.0" customHeight="1">
-      <c r="A26" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="58">
+      <c r="A26" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="62">
         <v>2016.0</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="48">
-        <v>31.0</v>
-      </c>
-      <c r="F26" s="56">
+      <c r="D26" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="50">
+        <v>31.0</v>
+      </c>
+      <c r="F26" s="74">
         <v>841220.0</v>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="68">
         <f t="shared" si="1"/>
         <v>27136.12903</v>
       </c>
@@ -1928,30 +2071,30 @@
         <f t="shared" si="2"/>
         <v>0.02409924223</v>
       </c>
-      <c r="I26" s="58">
+      <c r="I26" s="62">
         <v>1.0</v>
       </c>
     </row>
     <row r="27" ht="12.0" customHeight="1">
-      <c r="A27" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="58">
+      <c r="A27" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="62">
         <v>2016.0</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="48">
+      <c r="D27" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="50">
         <v>30.0</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="74">
         <v>700286.0</v>
       </c>
-      <c r="G27" s="67">
+      <c r="G27" s="68">
         <f t="shared" si="1"/>
         <v>23342.86667</v>
       </c>
@@ -1959,30 +2102,30 @@
         <f t="shared" si="2"/>
         <v>0.02442334542</v>
       </c>
-      <c r="I27" s="58">
+      <c r="I27" s="62">
         <v>1.0</v>
       </c>
     </row>
     <row r="28" ht="12.0" customHeight="1">
       <c r="A28" s="81" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B28" s="81">
         <v>2016.0</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="87">
-        <v>31.0</v>
-      </c>
-      <c r="F28" s="78">
+      <c r="D28" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="86">
+        <v>31.0</v>
+      </c>
+      <c r="F28" s="87">
         <v>691212.0</v>
       </c>
-      <c r="G28" s="67">
+      <c r="G28" s="68">
         <f t="shared" si="1"/>
         <v>22297.16129</v>
       </c>
@@ -1995,19 +2138,19 @@
       </c>
     </row>
     <row r="29" ht="12.0" customHeight="1">
-      <c r="A29" s="58" t="s">
-        <v>20</v>
+      <c r="A29" s="62" t="s">
+        <v>38</v>
       </c>
       <c r="B29" s="94">
         <v>2017.0</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="48">
+      <c r="D29" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="50">
         <v>31.0</v>
       </c>
       <c r="F29" s="98"/>
@@ -2016,19 +2159,19 @@
       <c r="I29" s="99"/>
     </row>
     <row r="30" ht="12.0" customHeight="1">
-      <c r="A30" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="58">
+      <c r="A30" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="62">
         <v>2017.0</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="64">
+      <c r="D30" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="65">
         <v>28.0</v>
       </c>
       <c r="F30" s="100"/>
@@ -2037,19 +2180,19 @@
       <c r="I30" s="99"/>
     </row>
     <row r="31" ht="12.0" customHeight="1">
-      <c r="A31" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="58">
+      <c r="A31" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="62">
         <v>2017.0</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="48">
+      <c r="D31" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="50">
         <v>31.0</v>
       </c>
       <c r="F31" s="100"/>
@@ -2058,19 +2201,19 @@
       <c r="I31" s="99"/>
     </row>
     <row r="32" ht="12.0" customHeight="1">
-      <c r="A32" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="58">
+      <c r="A32" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="62">
         <v>2017.0</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="48">
+      <c r="D32" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="50">
         <v>30.0</v>
       </c>
       <c r="F32" s="100"/>
@@ -2079,19 +2222,19 @@
       <c r="I32" s="99"/>
     </row>
     <row r="33" ht="12.0" customHeight="1">
-      <c r="A33" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="58">
+      <c r="A33" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="62">
         <v>2017.0</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="48">
+      <c r="D33" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="50">
         <v>31.0</v>
       </c>
       <c r="F33" s="100"/>
@@ -2100,19 +2243,19 @@
       <c r="I33" s="99"/>
     </row>
     <row r="34" ht="12.0" customHeight="1">
-      <c r="A34" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="58">
+      <c r="A34" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="62">
         <v>2017.0</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="48">
+      <c r="D34" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="50">
         <v>30.0</v>
       </c>
       <c r="F34" s="100"/>
@@ -2121,19 +2264,19 @@
       <c r="I34" s="99"/>
     </row>
     <row r="35" ht="12.0" customHeight="1">
-      <c r="A35" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="58">
+      <c r="A35" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="62">
         <v>2017.0</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="48">
+      <c r="D35" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="50">
         <v>31.0</v>
       </c>
       <c r="F35" s="100"/>
@@ -2142,19 +2285,19 @@
       <c r="I35" s="99"/>
     </row>
     <row r="36" ht="12.0" customHeight="1">
-      <c r="A36" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="58">
+      <c r="A36" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="62">
         <v>2017.0</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="48">
+      <c r="D36" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="50">
         <v>31.0</v>
       </c>
       <c r="F36" s="100"/>
@@ -2163,19 +2306,19 @@
       <c r="I36" s="99"/>
     </row>
     <row r="37" ht="12.0" customHeight="1">
-      <c r="A37" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="58">
+      <c r="A37" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="62">
         <v>2017.0</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="48">
+      <c r="D37" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="50">
         <v>30.0</v>
       </c>
       <c r="F37" s="100"/>
@@ -2184,19 +2327,19 @@
       <c r="I37" s="99"/>
     </row>
     <row r="38" ht="12.0" customHeight="1">
-      <c r="A38" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="58">
+      <c r="A38" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="62">
         <v>2017.0</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="48">
+      <c r="D38" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="50">
         <v>31.0</v>
       </c>
       <c r="F38" s="100"/>
@@ -2205,19 +2348,19 @@
       <c r="I38" s="99"/>
     </row>
     <row r="39" ht="12.0" customHeight="1">
-      <c r="A39" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="58">
+      <c r="A39" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="62">
         <v>2017.0</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="48">
+      <c r="D39" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="50">
         <v>30.0</v>
       </c>
       <c r="F39" s="100"/>
@@ -2227,18 +2370,18 @@
     </row>
     <row r="40" ht="12.0" customHeight="1">
       <c r="A40" s="81" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B40" s="81">
         <v>2017.0</v>
       </c>
-      <c r="C40" s="83" t="s">
+      <c r="C40" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="87">
+      <c r="D40" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="86">
         <v>31.0</v>
       </c>
       <c r="F40" s="101"/>
@@ -2247,19 +2390,19 @@
       <c r="I40" s="99"/>
     </row>
     <row r="41" ht="12.0" customHeight="1">
-      <c r="A41" s="58" t="s">
-        <v>20</v>
+      <c r="A41" s="62" t="s">
+        <v>38</v>
       </c>
       <c r="B41" s="94">
         <v>2018.0</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="48">
+      <c r="D41" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="50">
         <v>31.0</v>
       </c>
       <c r="F41" s="98"/>
@@ -2268,19 +2411,19 @@
       <c r="I41" s="99"/>
     </row>
     <row r="42" ht="12.0" customHeight="1">
-      <c r="A42" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="58">
+      <c r="A42" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="62">
         <v>2018.0</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="64">
+      <c r="D42" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="65">
         <v>28.0</v>
       </c>
       <c r="F42" s="100"/>
@@ -2289,19 +2432,19 @@
       <c r="I42" s="99"/>
     </row>
     <row r="43" ht="12.0" customHeight="1">
-      <c r="A43" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="58">
+      <c r="A43" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="62">
         <v>2018.0</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="48">
+      <c r="D43" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="50">
         <v>31.0</v>
       </c>
       <c r="F43" s="100"/>
@@ -2310,19 +2453,19 @@
       <c r="I43" s="99"/>
     </row>
     <row r="44" ht="12.0" customHeight="1">
-      <c r="A44" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="58">
+      <c r="A44" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="62">
         <v>2018.0</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="48">
+      <c r="D44" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="50">
         <v>30.0</v>
       </c>
       <c r="F44" s="100"/>
@@ -2331,19 +2474,19 @@
       <c r="I44" s="99"/>
     </row>
     <row r="45" ht="12.0" customHeight="1">
-      <c r="A45" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="58">
+      <c r="A45" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="62">
         <v>2018.0</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="48">
+      <c r="D45" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="50">
         <v>31.0</v>
       </c>
       <c r="F45" s="100"/>
@@ -2352,19 +2495,19 @@
       <c r="I45" s="99"/>
     </row>
     <row r="46" ht="12.0" customHeight="1">
-      <c r="A46" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="58">
+      <c r="A46" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="62">
         <v>2018.0</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="D46" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="48">
+      <c r="D46" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="50">
         <v>30.0</v>
       </c>
       <c r="F46" s="100"/>
@@ -2373,19 +2516,19 @@
       <c r="I46" s="99"/>
     </row>
     <row r="47" ht="12.0" customHeight="1">
-      <c r="A47" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="58">
+      <c r="A47" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="62">
         <v>2018.0</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="48">
+      <c r="D47" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="50">
         <v>31.0</v>
       </c>
       <c r="F47" s="100"/>
@@ -2394,19 +2537,19 @@
       <c r="I47" s="99"/>
     </row>
     <row r="48" ht="12.0" customHeight="1">
-      <c r="A48" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="58">
+      <c r="A48" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="62">
         <v>2018.0</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="48">
+      <c r="D48" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="50">
         <v>31.0</v>
       </c>
       <c r="F48" s="100"/>
@@ -2415,19 +2558,19 @@
       <c r="I48" s="99"/>
     </row>
     <row r="49" ht="12.0" customHeight="1">
-      <c r="A49" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="58">
+      <c r="A49" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="62">
         <v>2018.0</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="48">
+      <c r="D49" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="50">
         <v>30.0</v>
       </c>
       <c r="F49" s="100"/>
@@ -2436,19 +2579,19 @@
       <c r="I49" s="99"/>
     </row>
     <row r="50" ht="12.0" customHeight="1">
-      <c r="A50" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="58">
+      <c r="A50" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="62">
         <v>2018.0</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="48">
+      <c r="D50" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="50">
         <v>31.0</v>
       </c>
       <c r="F50" s="100"/>
@@ -2457,19 +2600,19 @@
       <c r="I50" s="99"/>
     </row>
     <row r="51" ht="12.0" customHeight="1">
-      <c r="A51" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="58">
+      <c r="A51" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="62">
         <v>2018.0</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="48">
+      <c r="D51" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="50">
         <v>30.0</v>
       </c>
       <c r="F51" s="100"/>
@@ -2479,18 +2622,18 @@
     </row>
     <row r="52" ht="12.0" customHeight="1">
       <c r="A52" s="81" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B52" s="81">
         <v>2018.0</v>
       </c>
-      <c r="C52" s="83" t="s">
+      <c r="C52" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="D52" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="E52" s="87">
+      <c r="D52" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="86">
         <v>31.0</v>
       </c>
       <c r="F52" s="101"/>
@@ -2499,19 +2642,19 @@
       <c r="I52" s="99"/>
     </row>
     <row r="53" ht="12.0" customHeight="1">
-      <c r="A53" s="58" t="s">
-        <v>20</v>
+      <c r="A53" s="62" t="s">
+        <v>38</v>
       </c>
       <c r="B53" s="94">
         <v>2019.0</v>
       </c>
-      <c r="C53" s="60" t="s">
+      <c r="C53" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="48">
+      <c r="D53" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="50">
         <v>31.0</v>
       </c>
       <c r="F53" s="98"/>
@@ -2520,19 +2663,19 @@
       <c r="I53" s="99"/>
     </row>
     <row r="54" ht="12.0" customHeight="1">
-      <c r="A54" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="58">
+      <c r="A54" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="62">
         <v>2019.0</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" s="64">
+      <c r="D54" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="65">
         <v>28.0</v>
       </c>
       <c r="F54" s="100"/>
@@ -2541,19 +2684,19 @@
       <c r="I54" s="99"/>
     </row>
     <row r="55" ht="12.0" customHeight="1">
-      <c r="A55" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="58">
+      <c r="A55" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="62">
         <v>2019.0</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="48">
+      <c r="D55" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="50">
         <v>31.0</v>
       </c>
       <c r="F55" s="100"/>
@@ -2562,19 +2705,19 @@
       <c r="I55" s="99"/>
     </row>
     <row r="56" ht="12.0" customHeight="1">
-      <c r="A56" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="58">
+      <c r="A56" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="62">
         <v>2019.0</v>
       </c>
-      <c r="C56" s="60" t="s">
+      <c r="C56" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="E56" s="48">
+      <c r="D56" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="50">
         <v>30.0</v>
       </c>
       <c r="F56" s="100"/>
@@ -2583,19 +2726,19 @@
       <c r="I56" s="99"/>
     </row>
     <row r="57" ht="12.0" customHeight="1">
-      <c r="A57" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="58">
+      <c r="A57" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="62">
         <v>2019.0</v>
       </c>
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="E57" s="48">
+      <c r="D57" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="50">
         <v>31.0</v>
       </c>
       <c r="F57" s="100"/>
@@ -2604,19 +2747,19 @@
       <c r="I57" s="99"/>
     </row>
     <row r="58" ht="12.0" customHeight="1">
-      <c r="A58" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="58">
+      <c r="A58" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="62">
         <v>2019.0</v>
       </c>
-      <c r="C58" s="60" t="s">
+      <c r="C58" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="E58" s="48">
+      <c r="D58" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" s="50">
         <v>30.0</v>
       </c>
       <c r="F58" s="100"/>
@@ -2625,19 +2768,19 @@
       <c r="I58" s="99"/>
     </row>
     <row r="59" ht="12.0" customHeight="1">
-      <c r="A59" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" s="58">
+      <c r="A59" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="62">
         <v>2019.0</v>
       </c>
-      <c r="C59" s="60" t="s">
+      <c r="C59" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="D59" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" s="48">
+      <c r="D59" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="50">
         <v>31.0</v>
       </c>
       <c r="F59" s="100"/>
@@ -2646,19 +2789,19 @@
       <c r="I59" s="99"/>
     </row>
     <row r="60" ht="12.0" customHeight="1">
-      <c r="A60" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B60" s="58">
+      <c r="A60" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="62">
         <v>2019.0</v>
       </c>
-      <c r="C60" s="60" t="s">
+      <c r="C60" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="48">
+      <c r="D60" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="50">
         <v>31.0</v>
       </c>
       <c r="F60" s="100"/>
@@ -2667,19 +2810,19 @@
       <c r="I60" s="99"/>
     </row>
     <row r="61" ht="12.0" customHeight="1">
-      <c r="A61" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="58">
+      <c r="A61" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="62">
         <v>2019.0</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="D61" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" s="48">
+      <c r="D61" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="50">
         <v>30.0</v>
       </c>
       <c r="F61" s="100"/>
@@ -2688,19 +2831,19 @@
       <c r="I61" s="99"/>
     </row>
     <row r="62" ht="12.0" customHeight="1">
-      <c r="A62" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="58">
+      <c r="A62" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="62">
         <v>2019.0</v>
       </c>
-      <c r="C62" s="60" t="s">
+      <c r="C62" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="D62" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="E62" s="48">
+      <c r="D62" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" s="50">
         <v>31.0</v>
       </c>
       <c r="F62" s="100"/>
@@ -2709,19 +2852,19 @@
       <c r="I62" s="99"/>
     </row>
     <row r="63" ht="12.0" customHeight="1">
-      <c r="A63" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" s="58">
+      <c r="A63" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="62">
         <v>2019.0</v>
       </c>
-      <c r="C63" s="60" t="s">
+      <c r="C63" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="E63" s="48">
+      <c r="D63" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="50">
         <v>30.0</v>
       </c>
       <c r="F63" s="100"/>
@@ -2731,18 +2874,18 @@
     </row>
     <row r="64" ht="12.0" customHeight="1">
       <c r="A64" s="81" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B64" s="81">
         <v>2019.0</v>
       </c>
-      <c r="C64" s="83" t="s">
+      <c r="C64" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="E64" s="87">
+      <c r="D64" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" s="86">
         <v>31.0</v>
       </c>
       <c r="F64" s="101"/>
@@ -2751,10 +2894,7 @@
       <c r="I64" s="99"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2762,6 +2902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFD9EAD3"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2777,19 +2918,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4">
         <v>42005.0</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -2797,303 +2938,303 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>42779.0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="29">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14">
         <v>365.0</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="14">
         <v>366.0</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="25.5" customHeight="1">
+      <c r="A5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" ht="25.5" customHeight="1">
-      <c r="A5" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>28</v>
+      <c r="C5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="41">
+      <c r="A6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="25">
         <v>9242345.0</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="25">
         <v>9505573.0</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="25">
         <f t="shared" ref="D6:E6" si="1">B6/D$3</f>
         <v>25321.49315</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="25">
         <f t="shared" si="1"/>
         <v>25971.51093</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="26">
         <f t="shared" ref="F6:F15" si="3">E6/D6-1</f>
         <v>0.02567059432</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="41">
+      <c r="A7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="25">
         <v>789893.0</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="25">
         <v>841788.0</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="25">
         <f t="shared" ref="D7:E7" si="2">B7/D$3</f>
         <v>2164.090411</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="25">
         <f t="shared" si="2"/>
         <v>2299.967213</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="26">
         <f t="shared" si="3"/>
         <v>0.06278702658</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="41">
+      <c r="A8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="25">
         <v>2326841.0</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="25">
         <v>2371210.0</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="25">
         <f t="shared" ref="D8:E8" si="4">B8/D$3</f>
         <v>6374.906849</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="25">
         <f t="shared" si="4"/>
         <v>6478.715847</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="26">
         <f t="shared" si="3"/>
         <v>0.01628400228</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="41">
+      <c r="A9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="25">
         <v>895457.0</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="25">
         <v>904666.0</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="25">
         <f t="shared" ref="D9:E9" si="5">B9/D$3</f>
         <v>2453.306849</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="25">
         <f t="shared" si="5"/>
         <v>2471.765027</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="26">
         <f t="shared" si="3"/>
         <v>0.007523795082</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="41">
+      <c r="A10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="25">
         <v>1011225.0</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="25">
         <v>1034960.0</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="25">
         <f t="shared" ref="D10:E10" si="6">B10/D$3</f>
         <v>2770.479452</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="25">
         <f t="shared" si="6"/>
         <v>2827.759563</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="26">
         <f t="shared" si="3"/>
         <v>0.02067516175</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="41">
+      <c r="A11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="25">
         <v>1995408.0</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="25">
         <v>2054697.0</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="25">
         <f t="shared" ref="D11:E11" si="7">B11/D$3</f>
         <v>5466.871233</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="25">
         <f t="shared" si="7"/>
         <v>5613.92623</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="26">
         <f t="shared" si="3"/>
         <v>0.02689929767</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="41">
+      <c r="A12" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="25">
         <v>5666716.0</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="25">
         <v>5847543.0</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="25">
         <f t="shared" ref="D12:E12" si="8">B12/D$3</f>
         <v>15525.24932</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="25">
         <f t="shared" si="8"/>
         <v>15976.89344</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="26">
         <f t="shared" si="3"/>
         <v>0.02909094201</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="41">
+      <c r="A13" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="25">
         <v>1013252.0</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="25">
         <v>1003474.0</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="25">
         <f t="shared" ref="D13:E13" si="9">B13/D$3</f>
         <v>2776.032877</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="25">
         <f t="shared" si="9"/>
         <v>2741.73224</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="26">
         <f t="shared" si="3"/>
         <v>-0.01235599065</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="41">
+      <c r="A14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="25">
         <v>1781608.0</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="25">
         <v>1929534.0</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="25">
         <f t="shared" ref="D14:E14" si="10">B14/D$3</f>
         <v>4881.117808</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="25">
         <f t="shared" si="10"/>
         <v>5271.95082</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="26">
         <f t="shared" si="3"/>
         <v>0.08007039101</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="41">
+      <c r="A15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="25">
         <v>2355226.0</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="25">
         <v>2485127.0</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="25">
         <f t="shared" ref="D15:E15" si="11">B15/D$3</f>
         <v>6452.673973</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="25">
         <f t="shared" si="11"/>
         <v>6789.964481</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="26">
         <f t="shared" si="3"/>
         <v>0.05227143192</v>
       </c>
@@ -3105,6 +3246,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3117,80 +3261,80 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="62" t="s">
+    </row>
+    <row r="2" ht="12.75" customHeight="1">
+      <c r="A2" s="47">
+        <v>42583.0</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D2" s="53" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="66">
-        <v>42583.0</v>
-      </c>
-      <c r="B2" s="68" t="s">
+    <row r="3" ht="12.0" customHeight="1">
+      <c r="A3" s="47">
+        <v>42676.0</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="D3" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="77" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="66">
+    </row>
+    <row r="4" ht="12.0" customHeight="1">
+      <c r="A4" s="47">
         <v>42676.0</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="77" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="66">
-        <v>42676.0</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>65</v>
+      <c r="B4" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="82">
+      <c r="A5" s="54">
         <v>42779.0</v>
       </c>
-      <c r="B5" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="86">
+      <c r="B5" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="57">
         <v>2016.0</v>
       </c>
-      <c r="D5" s="88" t="s">
-        <v>76</v>
+      <c r="D5" s="59" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
